--- a/input_output_and_graph/comparison.xlsx
+++ b/input_output_and_graph/comparison.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
   <si>
     <t>Dataset #1 10KHOG-MAN</t>
   </si>
@@ -365,6 +365,48 @@
   </si>
   <si>
     <t>0.0111 s</t>
+  </si>
+  <si>
+    <t>Dataset #13 sparse2Dcircle</t>
+  </si>
+  <si>
+    <t>2.496 ms</t>
+  </si>
+  <si>
+    <t>4.217 ms</t>
+  </si>
+  <si>
+    <t>0.0298 seconds</t>
+  </si>
+  <si>
+    <t>0.0359 seconds</t>
+  </si>
+  <si>
+    <t>0.0299 seconds</t>
+  </si>
+  <si>
+    <t>Dataset #14 noisy2Dcircle</t>
+  </si>
+  <si>
+    <t>26.434 ms</t>
+  </si>
+  <si>
+    <t>51.575 ms</t>
+  </si>
+  <si>
+    <t>68500.5 ms</t>
+  </si>
+  <si>
+    <t>11.8062 seconds</t>
+  </si>
+  <si>
+    <t>0.7577 seconds</t>
+  </si>
+  <si>
+    <t>0.7462 seconds</t>
+  </si>
+  <si>
+    <t>0.8031 seconds</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,9 +1064,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1045,6 +1084,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1369,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1440,7 +1485,7 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
@@ -1483,7 +1528,7 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1525,7 +1570,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1">
@@ -1582,7 +1627,7 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1687,7 +1732,7 @@
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1738,7 +1783,7 @@
       <c r="D24" s="1">
         <v>0.02484</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.0228</v>
       </c>
     </row>
@@ -1746,16 +1791,16 @@
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1789,7 +1834,7 @@
       <c r="D27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1885,7 +1930,7 @@
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1990,7 +2035,7 @@
       <c r="C41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2038,13 +2083,13 @@
       <c r="B45" s="2">
         <v>2471694.31</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2092,7 +2137,7 @@
       <c r="C48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2188,7 +2233,7 @@
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2239,13 +2284,13 @@
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="2">
         <v>88148429.2759</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>68577508.365</v>
       </c>
       <c r="E59" s="2">
@@ -2293,7 +2338,7 @@
       <c r="B62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2398,7 +2443,7 @@
       <c r="C69" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2503,7 +2548,7 @@
       <c r="D76" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2534,9 +2579,9 @@
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
       <c r="F79" t="s">
         <v>107</v>
       </c>
@@ -2545,12 +2590,12 @@
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="3">
         <v>9400</v>
       </c>
@@ -2559,13 +2604,13 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="15" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2573,12 +2618,12 @@
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="3">
         <v>49</v>
       </c>
@@ -2587,14 +2632,218 @@
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="11" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="10" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="1">
+        <v>571.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1429.2916</v>
+      </c>
+      <c r="C87" s="11">
+        <v>843.0872</v>
+      </c>
+      <c r="D87" s="3">
+        <v>421.3642</v>
+      </c>
+      <c r="E87" s="3">
+        <v>421.3642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.7184</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1.7184</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1.7184</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1.7184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4</v>
+      </c>
+      <c r="D89" s="3">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2">
+        <v>14930.3579</v>
+      </c>
+      <c r="C94" s="12">
+        <v>9648.7064</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4808.3661</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4808.3661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="12">
+        <v>4.2796</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.04375</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.04375</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.04375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1">
+        <v>100</v>
+      </c>
+      <c r="C96" s="3">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3">
+        <v>11</v>
+      </c>
+      <c r="E96" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
